--- a/Defocus/notebooks/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.xlsx
+++ b/Defocus/notebooks/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/notebooks_draw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/R350/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D474FD7F-592F-3244-AC14-79F7A23342FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C62A4B0-8503-A044-B1C4-98BF96BB93C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16780" xr2:uid="{31FBDF95-6C72-784E-B4E9-04CC5A5DB795}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{5B0DDB0D-16E3-E94B-96F5-F46589051AC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,8 +35,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{D143ED99-D76A-684D-9227-A3824F8A62AD}" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr sourceFile="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/R350/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.txt" thousands=" " space="1" consecutive="1" delimiter=":">
+  <connection id="1" xr16:uid="{68D4F513-0299-8942-B4EB-80637FFAE26A}" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/dagoret/MacOSX/GitHub/LSST/OpticSimWthB4/DrawBeams/R350/R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY.txt" thousands=" " space="1" consecutive="1" delimiter=":">
       <textFields count="24">
         <textField/>
         <textField/>
@@ -155,10 +155,10 @@
     <t>k</t>
   </si>
   <si>
-    <t>col</t>
+    <t>wave</t>
   </si>
   <si>
-    <t>wave</t>
+    <t>col</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" connectionId="1" xr16:uid="{FA2D8B2E-5F67-064D-A0C3-115BB6938C75}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="R350_Beam4_Rayfile_484_allwl_m00_m00_2020_05_25_B4OUT_RAY" connectionId="1" xr16:uid="{24524FD0-9DFD-6643-88C3-FEA0B0C90250}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,16 +513,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8917D05A-2C90-FE42-BBBB-14B3E27FAD15}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F636856F-02E7-C944-8E98-644DA9B9CEE3}">
   <dimension ref="A1:X486"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="A487" sqref="A487:XFD983"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -530,9 +530,11 @@
     <col min="11" max="11" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="3.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="2.1640625" bestFit="1" customWidth="1"/>
@@ -569,10 +571,10 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -25753,10 +25755,10 @@
         <v>16.728899999999999</v>
       </c>
       <c r="P342">
-        <v>79.999979999999994</v>
+        <v>-4.0750000000000001E-2</v>
       </c>
       <c r="Q342">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R342">
         <v>0</v>
@@ -25765,15 +25767,18 @@
         <v>0</v>
       </c>
       <c r="T342">
-        <v>0</v>
+        <v>16.728899999999999</v>
       </c>
       <c r="U342">
-        <v>79.999979999999994</v>
-      </c>
-      <c r="V342" t="s">
-        <v>24</v>
-      </c>
-      <c r="W342">
+        <v>-4.0750000000000001E-2</v>
+      </c>
+      <c r="V342">
+        <v>80</v>
+      </c>
+      <c r="W342" t="s">
+        <v>24</v>
+      </c>
+      <c r="X342">
         <v>3</v>
       </c>
     </row>
@@ -25821,13 +25826,13 @@
         <v>22</v>
       </c>
       <c r="O343">
-        <v>0</v>
+        <v>16.68824</v>
       </c>
       <c r="P343">
-        <v>0</v>
+        <v>-3.8039999999999997E-2</v>
       </c>
       <c r="Q343">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R343">
         <v>0</v>
@@ -25836,13 +25841,13 @@
         <v>0</v>
       </c>
       <c r="T343">
-        <v>0</v>
+        <v>16.68824</v>
       </c>
       <c r="U343">
-        <v>0</v>
+        <v>-3.8039999999999997E-2</v>
       </c>
       <c r="V343">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W343" t="s">
         <v>24</v>
@@ -25895,13 +25900,13 @@
         <v>22</v>
       </c>
       <c r="O344">
-        <v>0</v>
+        <v>17.233160000000002</v>
       </c>
       <c r="P344">
-        <v>0</v>
+        <v>-8.8239999999999999E-2</v>
       </c>
       <c r="Q344">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R344">
         <v>0</v>
@@ -25910,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="T344">
-        <v>0</v>
+        <v>17.233160000000002</v>
       </c>
       <c r="U344">
-        <v>0</v>
+        <v>-8.8239999999999999E-2</v>
       </c>
       <c r="V344">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W344" t="s">
         <v>24</v>
@@ -25969,13 +25974,13 @@
         <v>22</v>
       </c>
       <c r="O345">
-        <v>0</v>
+        <v>17.165019999999998</v>
       </c>
       <c r="P345">
-        <v>0</v>
+        <v>-8.4349999999999994E-2</v>
       </c>
       <c r="Q345">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R345">
         <v>0</v>
@@ -25984,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="T345">
-        <v>0</v>
+        <v>17.165019999999998</v>
       </c>
       <c r="U345">
-        <v>0</v>
+        <v>-8.4349999999999994E-2</v>
       </c>
       <c r="V345">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W345" t="s">
         <v>24</v>
@@ -26043,13 +26048,13 @@
         <v>22</v>
       </c>
       <c r="O346">
-        <v>0</v>
+        <v>17.100090000000002</v>
       </c>
       <c r="P346">
-        <v>0</v>
+        <v>-8.0479999999999996E-2</v>
       </c>
       <c r="Q346">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R346">
         <v>0</v>
@@ -26058,13 +26063,13 @@
         <v>0</v>
       </c>
       <c r="T346">
-        <v>0</v>
+        <v>17.100090000000002</v>
       </c>
       <c r="U346">
-        <v>0</v>
+        <v>-8.0479999999999996E-2</v>
       </c>
       <c r="V346">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W346" t="s">
         <v>24</v>
@@ -26117,13 +26122,13 @@
         <v>22</v>
       </c>
       <c r="O347">
-        <v>0</v>
+        <v>17.038329999999998</v>
       </c>
       <c r="P347">
-        <v>0</v>
+        <v>-7.6649999999999996E-2</v>
       </c>
       <c r="Q347">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R347">
         <v>0</v>
@@ -26132,13 +26137,13 @@
         <v>0</v>
       </c>
       <c r="T347">
-        <v>0</v>
+        <v>17.038329999999998</v>
       </c>
       <c r="U347">
-        <v>0</v>
+        <v>-7.6649999999999996E-2</v>
       </c>
       <c r="V347">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W347" t="s">
         <v>24</v>
@@ -26191,13 +26196,13 @@
         <v>22</v>
       </c>
       <c r="O348">
-        <v>0</v>
+        <v>16.979690000000002</v>
       </c>
       <c r="P348">
-        <v>0</v>
+        <v>-7.2859999999999994E-2</v>
       </c>
       <c r="Q348">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R348">
         <v>0</v>
@@ -26206,13 +26211,13 @@
         <v>0</v>
       </c>
       <c r="T348">
-        <v>0</v>
+        <v>16.979690000000002</v>
       </c>
       <c r="U348">
-        <v>0</v>
+        <v>-7.2859999999999994E-2</v>
       </c>
       <c r="V348">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W348" t="s">
         <v>24</v>
@@ -26339,30 +26344,33 @@
         <v>22</v>
       </c>
       <c r="O350">
-        <v>0</v>
+        <v>16.871670000000002</v>
       </c>
       <c r="P350">
-        <v>79.999979999999994</v>
+        <v>-6.5360000000000001E-2</v>
       </c>
       <c r="Q350">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="R350">
         <v>0</v>
       </c>
       <c r="S350">
+        <v>0</v>
+      </c>
+      <c r="T350">
         <v>16.871670000000002</v>
       </c>
-      <c r="T350">
+      <c r="U350">
         <v>-6.5360000000000001E-2</v>
       </c>
-      <c r="U350">
-        <v>80</v>
-      </c>
-      <c r="V350" t="s">
-        <v>24</v>
-      </c>
-      <c r="W350">
+      <c r="V350">
+        <v>80</v>
+      </c>
+      <c r="W350" t="s">
+        <v>24</v>
+      </c>
+      <c r="X350">
         <v>3</v>
       </c>
     </row>
@@ -26484,13 +26492,13 @@
         <v>22</v>
       </c>
       <c r="O352">
-        <v>0</v>
+        <v>16.775659999999998</v>
       </c>
       <c r="P352">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="Q352">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R352">
         <v>0</v>
@@ -26499,13 +26507,13 @@
         <v>0</v>
       </c>
       <c r="T352">
-        <v>0</v>
+        <v>16.775659999999998</v>
       </c>
       <c r="U352">
-        <v>0</v>
+        <v>-5.8000000000000003E-2</v>
       </c>
       <c r="V352">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W352" t="s">
         <v>24</v>
@@ -26558,13 +26566,13 @@
         <v>22</v>
       </c>
       <c r="O353">
-        <v>0</v>
+        <v>16.732089999999999</v>
       </c>
       <c r="P353">
-        <v>0</v>
+        <v>-5.4350000000000002E-2</v>
       </c>
       <c r="Q353">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R353">
         <v>0</v>
@@ -26573,13 +26581,13 @@
         <v>0</v>
       </c>
       <c r="T353">
-        <v>0</v>
+        <v>16.732089999999999</v>
       </c>
       <c r="U353">
-        <v>0</v>
+        <v>-5.4350000000000002E-2</v>
       </c>
       <c r="V353">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W353" t="s">
         <v>24</v>
@@ -26632,13 +26640,13 @@
         <v>22</v>
       </c>
       <c r="O354">
-        <v>0</v>
+        <v>16.691420000000001</v>
       </c>
       <c r="P354">
-        <v>0</v>
+        <v>-5.074E-2</v>
       </c>
       <c r="Q354">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R354">
         <v>0</v>
@@ -26647,13 +26655,13 @@
         <v>0</v>
       </c>
       <c r="T354">
-        <v>0</v>
+        <v>16.691420000000001</v>
       </c>
       <c r="U354">
-        <v>0</v>
+        <v>-5.074E-2</v>
       </c>
       <c r="V354">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W354" t="s">
         <v>24</v>
@@ -26706,13 +26714,13 @@
         <v>22</v>
       </c>
       <c r="O355">
-        <v>0</v>
+        <v>17.23752</v>
       </c>
       <c r="P355">
-        <v>0</v>
+        <v>-0.11036</v>
       </c>
       <c r="Q355">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R355">
         <v>0</v>
@@ -26721,13 +26729,13 @@
         <v>0</v>
       </c>
       <c r="T355">
-        <v>0</v>
+        <v>17.23752</v>
       </c>
       <c r="U355">
-        <v>0</v>
+        <v>-0.11036</v>
       </c>
       <c r="V355">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W355" t="s">
         <v>24</v>
@@ -26780,13 +26788,13 @@
         <v>22</v>
       </c>
       <c r="O356">
-        <v>0</v>
+        <v>17.169339999999998</v>
       </c>
       <c r="P356">
-        <v>0</v>
+        <v>-0.10548</v>
       </c>
       <c r="Q356">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R356">
         <v>0</v>
@@ -26795,13 +26803,13 @@
         <v>0</v>
       </c>
       <c r="T356">
-        <v>0</v>
+        <v>17.169339999999998</v>
       </c>
       <c r="U356">
-        <v>0</v>
+        <v>-0.10548</v>
       </c>
       <c r="V356">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W356" t="s">
         <v>24</v>
@@ -26854,13 +26862,13 @@
         <v>22</v>
       </c>
       <c r="O357">
-        <v>0</v>
+        <v>17.104379999999999</v>
       </c>
       <c r="P357">
-        <v>0</v>
+        <v>-0.10065</v>
       </c>
       <c r="Q357">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R357">
         <v>0</v>
@@ -26869,13 +26877,13 @@
         <v>0</v>
       </c>
       <c r="T357">
-        <v>0</v>
+        <v>17.104379999999999</v>
       </c>
       <c r="U357">
-        <v>0</v>
+        <v>-0.10065</v>
       </c>
       <c r="V357">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W357" t="s">
         <v>24</v>
@@ -26928,13 +26936,13 @@
         <v>22</v>
       </c>
       <c r="O358">
-        <v>0</v>
+        <v>17.042590000000001</v>
       </c>
       <c r="P358">
-        <v>0</v>
+        <v>-9.5860000000000001E-2</v>
       </c>
       <c r="Q358">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R358">
         <v>0</v>
@@ -26943,13 +26951,13 @@
         <v>0</v>
       </c>
       <c r="T358">
-        <v>0</v>
+        <v>17.042590000000001</v>
       </c>
       <c r="U358">
-        <v>0</v>
+        <v>-9.5860000000000001E-2</v>
       </c>
       <c r="V358">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W358" t="s">
         <v>24</v>
@@ -27002,13 +27010,13 @@
         <v>22</v>
       </c>
       <c r="O359">
-        <v>0</v>
+        <v>16.983930000000001</v>
       </c>
       <c r="P359">
-        <v>0</v>
+        <v>-9.1109999999999997E-2</v>
       </c>
       <c r="Q359">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R359">
         <v>0</v>
@@ -27017,13 +27025,13 @@
         <v>0</v>
       </c>
       <c r="T359">
-        <v>0</v>
+        <v>16.983930000000001</v>
       </c>
       <c r="U359">
-        <v>0</v>
+        <v>-9.1109999999999997E-2</v>
       </c>
       <c r="V359">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W359" t="s">
         <v>24</v>
@@ -27076,13 +27084,13 @@
         <v>22</v>
       </c>
       <c r="O360">
-        <v>0</v>
+        <v>16.928370000000001</v>
       </c>
       <c r="P360">
-        <v>0</v>
+        <v>-8.6410000000000001E-2</v>
       </c>
       <c r="Q360">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R360">
         <v>0</v>
@@ -27091,13 +27099,13 @@
         <v>0</v>
       </c>
       <c r="T360">
-        <v>0</v>
+        <v>16.928370000000001</v>
       </c>
       <c r="U360">
-        <v>0</v>
+        <v>-8.6410000000000001E-2</v>
       </c>
       <c r="V360">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W360" t="s">
         <v>24</v>
@@ -27150,13 +27158,13 @@
         <v>22</v>
       </c>
       <c r="O361">
-        <v>0</v>
+        <v>16.87585</v>
       </c>
       <c r="P361">
-        <v>0</v>
+        <v>-8.1739999999999993E-2</v>
       </c>
       <c r="Q361">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R361">
         <v>0</v>
@@ -27165,13 +27173,13 @@
         <v>0</v>
       </c>
       <c r="T361">
-        <v>0</v>
+        <v>16.87585</v>
       </c>
       <c r="U361">
-        <v>0</v>
+        <v>-8.1739999999999993E-2</v>
       </c>
       <c r="V361">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W361" t="s">
         <v>24</v>
@@ -27224,13 +27232,13 @@
         <v>22</v>
       </c>
       <c r="O362">
-        <v>0</v>
+        <v>16.826339999999998</v>
       </c>
       <c r="P362">
-        <v>0</v>
+        <v>-7.7119999999999994E-2</v>
       </c>
       <c r="Q362">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R362">
         <v>0</v>
@@ -27239,13 +27247,13 @@
         <v>0</v>
       </c>
       <c r="T362">
-        <v>0</v>
+        <v>16.826339999999998</v>
       </c>
       <c r="U362">
-        <v>0</v>
+        <v>-7.7119999999999994E-2</v>
       </c>
       <c r="V362">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W362" t="s">
         <v>24</v>
@@ -27298,13 +27306,13 @@
         <v>22</v>
       </c>
       <c r="O363">
-        <v>0</v>
+        <v>16.779800000000002</v>
       </c>
       <c r="P363">
-        <v>0</v>
+        <v>-7.2529999999999997E-2</v>
       </c>
       <c r="Q363">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R363">
         <v>0</v>
@@ -27313,13 +27321,13 @@
         <v>0</v>
       </c>
       <c r="T363">
-        <v>0</v>
+        <v>16.779800000000002</v>
       </c>
       <c r="U363">
-        <v>0</v>
+        <v>-7.2529999999999997E-2</v>
       </c>
       <c r="V363">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W363" t="s">
         <v>24</v>
@@ -27372,13 +27380,13 @@
         <v>22</v>
       </c>
       <c r="O364">
-        <v>0</v>
+        <v>16.7362</v>
       </c>
       <c r="P364">
-        <v>0</v>
+        <v>-6.7979999999999999E-2</v>
       </c>
       <c r="Q364">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R364">
         <v>0</v>
@@ -27387,13 +27395,13 @@
         <v>0</v>
       </c>
       <c r="T364">
-        <v>0</v>
+        <v>16.7362</v>
       </c>
       <c r="U364">
-        <v>0</v>
+        <v>-6.7979999999999999E-2</v>
       </c>
       <c r="V364">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W364" t="s">
         <v>24</v>
@@ -27446,13 +27454,13 @@
         <v>22</v>
       </c>
       <c r="O365">
-        <v>0</v>
+        <v>16.695489999999999</v>
       </c>
       <c r="P365">
-        <v>0</v>
+        <v>-6.3460000000000003E-2</v>
       </c>
       <c r="Q365">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R365">
         <v>0</v>
@@ -27461,13 +27469,13 @@
         <v>0</v>
       </c>
       <c r="T365">
-        <v>0</v>
+        <v>16.695489999999999</v>
       </c>
       <c r="U365">
-        <v>0</v>
+        <v>-6.3460000000000003E-2</v>
       </c>
       <c r="V365">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W365" t="s">
         <v>24</v>
@@ -27520,13 +27528,13 @@
         <v>22</v>
       </c>
       <c r="O366">
-        <v>0</v>
+        <v>22.190989999999999</v>
       </c>
       <c r="P366">
-        <v>0</v>
+        <v>0.17247000000000001</v>
       </c>
       <c r="Q366">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R366">
         <v>0</v>
@@ -27535,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="T366">
-        <v>0</v>
+        <v>22.190989999999999</v>
       </c>
       <c r="U366">
-        <v>0</v>
+        <v>0.17247000000000001</v>
       </c>
       <c r="V366">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W366" t="s">
         <v>24</v>
@@ -27594,13 +27602,13 @@
         <v>22</v>
       </c>
       <c r="O367">
-        <v>0</v>
+        <v>22.08099</v>
       </c>
       <c r="P367">
-        <v>0</v>
+        <v>0.16582</v>
       </c>
       <c r="Q367">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R367">
         <v>0</v>
@@ -27609,13 +27617,13 @@
         <v>0</v>
       </c>
       <c r="T367">
-        <v>0</v>
+        <v>22.08099</v>
       </c>
       <c r="U367">
-        <v>0</v>
+        <v>0.16582</v>
       </c>
       <c r="V367">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W367" t="s">
         <v>24</v>
@@ -27668,13 +27676,13 @@
         <v>22</v>
       </c>
       <c r="O368">
-        <v>0</v>
+        <v>21.975629999999999</v>
       </c>
       <c r="P368">
-        <v>0</v>
+        <v>0.15926999999999999</v>
       </c>
       <c r="Q368">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R368">
         <v>0</v>
@@ -27683,13 +27691,13 @@
         <v>0</v>
       </c>
       <c r="T368">
-        <v>0</v>
+        <v>21.975629999999999</v>
       </c>
       <c r="U368">
-        <v>0</v>
+        <v>0.15926999999999999</v>
       </c>
       <c r="V368">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W368" t="s">
         <v>24</v>
@@ -27742,13 +27750,13 @@
         <v>22</v>
       </c>
       <c r="O369">
-        <v>0</v>
+        <v>21.874790000000001</v>
       </c>
       <c r="P369">
-        <v>0</v>
+        <v>0.15278</v>
       </c>
       <c r="Q369">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R369">
         <v>0</v>
@@ -27757,13 +27765,13 @@
         <v>0</v>
       </c>
       <c r="T369">
-        <v>0</v>
+        <v>21.874790000000001</v>
       </c>
       <c r="U369">
-        <v>0</v>
+        <v>0.15278</v>
       </c>
       <c r="V369">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W369" t="s">
         <v>24</v>
@@ -27816,13 +27824,13 @@
         <v>22</v>
       </c>
       <c r="O370">
-        <v>0</v>
+        <v>21.778410000000001</v>
       </c>
       <c r="P370">
-        <v>0</v>
+        <v>0.14637</v>
       </c>
       <c r="Q370">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="R370">
         <v>0</v>
@@ -27831,13 +27839,13 @@
         <v>0</v>
       </c>
       <c r="T370">
-        <v>0</v>
+        <v>21.778410000000001</v>
       </c>
       <c r="U370">
-        <v>0</v>
+        <v>0.14637</v>
       </c>
       <c r="V370">
-        <v>79.999979999999994</v>
+        <v>80</v>
       </c>
       <c r="W370" t="s">
         <v>24</v>
